--- a/SDS节日节气专项测试/CalendarList_Audi_2023_CN.xlsx
+++ b/SDS节日节气专项测试/CalendarList_Audi_2023_CN.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12930"/>
+    <workbookView windowWidth="28800" windowHeight="12930" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="中国节日" sheetId="3" r:id="rId1"/>
-    <sheet name="24节气" sheetId="1" r:id="rId2"/>
-    <sheet name="西方节日" sheetId="2" r:id="rId3"/>
+    <sheet name="中国节日" sheetId="1" r:id="rId1"/>
+    <sheet name="24节气" sheetId="2" r:id="rId2"/>
+    <sheet name="西方节日" sheetId="3" r:id="rId3"/>
     <sheet name="其他节日" sheetId="4" r:id="rId4"/>
     <sheet name="SUM" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'24节气'!$A$1:$E$25</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="183">
   <si>
     <t>节日</t>
   </si>
@@ -359,6 +362,9 @@
     <t>2023年大雪是2023年12月7日, 农历十月二十五.</t>
   </si>
   <si>
+    <t>抱歉, 没有获取到天气信息, 请稍后再试.</t>
+  </si>
+  <si>
     <t>冬至</t>
   </si>
   <si>
@@ -395,6 +401,123 @@
     <t>2023年妇女节是2023年3月8日, 农历二月十七.</t>
   </si>
   <si>
+    <t>儿童节</t>
+  </si>
+  <si>
+    <t>2023年的儿童节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年儿童节是2023年6月1日, 农历四月十四.</t>
+  </si>
+  <si>
+    <t>情人节</t>
+  </si>
+  <si>
+    <t>2023年的情人节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年情人节是2023年2月14日, 农历正月二十四.</t>
+  </si>
+  <si>
+    <t>愚人节</t>
+  </si>
+  <si>
+    <t>2023年的愚人节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年愚人节是2023年4月1日, 农历二月十一.</t>
+  </si>
+  <si>
+    <t>平安夜</t>
+  </si>
+  <si>
+    <t>2023年的平安夜是什么时候</t>
+  </si>
+  <si>
+    <t>2023年平安夜是2023年12月24日, 农历十一月十二.</t>
+  </si>
+  <si>
+    <t>圣诞节</t>
+  </si>
+  <si>
+    <t>2023年的圣诞节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年圣诞节是2023年12月25日, 农历十一月十三.</t>
+  </si>
+  <si>
+    <t>复活节</t>
+  </si>
+  <si>
+    <t>2023年的复活节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年复活节是2023年4月9日, 农历二月十九.</t>
+  </si>
+  <si>
+    <t>母亲节</t>
+  </si>
+  <si>
+    <t>2023年的母亲节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年母亲节是2023年5月14日, 农历三月二十五.</t>
+  </si>
+  <si>
+    <t>父亲节</t>
+  </si>
+  <si>
+    <t>2023年的父亲节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年父亲节是2023年6月18日, 农历五月初一.</t>
+  </si>
+  <si>
+    <t>万圣节</t>
+  </si>
+  <si>
+    <t>2023年的万圣节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年万圣节是2023年10月31日, 农历九月十七.</t>
+  </si>
+  <si>
+    <t>感恩节</t>
+  </si>
+  <si>
+    <t>2023年的感恩节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年感恩节是2023年11月23日, 农历十月十一.</t>
+  </si>
+  <si>
+    <t>教师节</t>
+  </si>
+  <si>
+    <t>2023年的教师节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年教师节是2023年9月10日, 农历七月二十六.</t>
+  </si>
+  <si>
+    <t>护士节</t>
+  </si>
+  <si>
+    <t>2023年的护士节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年护士节是2023年5月12日, 农历三月二十三.</t>
+  </si>
+  <si>
+    <t>植树节</t>
+  </si>
+  <si>
+    <t>2023年的植树节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年植树节是2023年3月12日, 农历二月二十一.</t>
+  </si>
+  <si>
     <t>青年节</t>
   </si>
   <si>
@@ -402,213 +525,6 @@
   </si>
   <si>
     <t>2023年青年节是2023年5月4日, 农历三月十五.</t>
-  </si>
-  <si>
-    <t>儿童节</t>
-  </si>
-  <si>
-    <t>2023年的儿童节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年儿童节是2023年6月1日, 农历四月十四.</t>
-  </si>
-  <si>
-    <t>情人节</t>
-  </si>
-  <si>
-    <t>2023年的情人节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年情人节是2023年2月14日, 农历正月二十四.</t>
-  </si>
-  <si>
-    <t>愚人节</t>
-  </si>
-  <si>
-    <t>2023年的愚人节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年愚人节是2023年4月1日, 农历二月十一.</t>
-  </si>
-  <si>
-    <t>平安夜</t>
-  </si>
-  <si>
-    <t>2023年的平安夜是什么时候</t>
-  </si>
-  <si>
-    <t>2023年平安夜是2023年12月24日, 农历十一月十二.</t>
-  </si>
-  <si>
-    <t>圣诞节</t>
-  </si>
-  <si>
-    <t>2023年的圣诞节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年圣诞节是2023年12月25日, 农历十一月十三.</t>
-  </si>
-  <si>
-    <t>复活节</t>
-  </si>
-  <si>
-    <t>2023年的复活节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年复活节是2023年4月9日, 农历二月十九.</t>
-  </si>
-  <si>
-    <t>母亲节</t>
-  </si>
-  <si>
-    <t>2023年的母亲节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年母亲节是2023年5月14日, 农历三月二十五.</t>
-  </si>
-  <si>
-    <t>父亲节</t>
-  </si>
-  <si>
-    <t>2023年的父亲节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年父亲节是2023年6月18日, 农历五月初一.</t>
-  </si>
-  <si>
-    <t>万圣节</t>
-  </si>
-  <si>
-    <t>2023年的万圣节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年万圣节是2023年10月31日, 农历九月十七.</t>
-  </si>
-  <si>
-    <t>感恩节</t>
-  </si>
-  <si>
-    <t>2023年的感恩节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年感恩节是2023年11月23日, 农历十月十一.</t>
-  </si>
-  <si>
-    <t>教师节</t>
-  </si>
-  <si>
-    <t>2023年的教师节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年教师节是2023年9月10日, 农历七月二十六.</t>
-  </si>
-  <si>
-    <t>护士节</t>
-  </si>
-  <si>
-    <t>2023年的护士节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年护士节是2023年5月12日, 农历三月二十三.</t>
-  </si>
-  <si>
-    <t>植树节</t>
-  </si>
-  <si>
-    <t>2023年的植树节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年植树节是2023年3月12日, 农历二月二十一.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2023</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年青年节是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2023</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>农历三月十五</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>光棍节</t>
@@ -634,7 +550,26 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="0"/>
       </rPr>
-      <t>年节日节气测试</t>
+      <t>年节日（普通话）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="0"/>
+      </rPr>
+      <t>节气</t>
     </r>
   </si>
   <si>
@@ -674,11 +609,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -695,6 +630,24 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -722,27 +675,16 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,7 +698,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,23 +728,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,6 +752,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -824,9 +790,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,38 +805,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,11 +823,6 @@
       <name val="Droid Sans Fallback"/>
       <charset val="0"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -939,61 +869,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,126 +1049,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1148,6 +1078,83 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1159,21 +1166,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,173 +1211,161 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1393,95 +1373,100 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="7" borderId="1" xfId="47" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1829,274 +1814,304 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="25" customWidth="1"/>
-    <col min="2" max="2" width="29.7142857142857" style="31" customWidth="1"/>
-    <col min="3" max="3" width="51.5714285714286" style="25" customWidth="1"/>
-    <col min="4" max="4" width="44.8571428571429" style="25" customWidth="1"/>
+    <col min="1" max="1" width="9.14285714285714" style="32" customWidth="1"/>
+    <col min="2" max="2" width="29.7142857142857" style="34" customWidth="1"/>
+    <col min="3" max="3" width="51.5714285714286" style="32" customWidth="1"/>
+    <col min="4" max="4" width="44.8571428571429" style="32" customWidth="1"/>
     <col min="5" max="5" width="11.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="17" t="str">
+      <c r="D2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="18" t="str">
         <f t="shared" ref="E2:E16" si="0">IF(C2=D2,"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="16" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
@@ -2126,417 +2141,465 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="25" customWidth="1"/>
-    <col min="2" max="2" width="27.1428571428571" style="26" customWidth="1"/>
-    <col min="3" max="3" width="50.1428571428571" style="11" customWidth="1"/>
-    <col min="4" max="4" width="46" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.14285714285714" style="32" customWidth="1"/>
+    <col min="2" max="2" width="27.1428571428571" style="33" customWidth="1"/>
+    <col min="3" max="3" width="50.1428571428571" style="20" customWidth="1"/>
+    <col min="4" max="4" width="46" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:5">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="17" t="str">
+      <c r="D2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="18" t="str">
         <f t="shared" ref="E2:E25" si="0">IF(C2=D2,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" customHeight="1" spans="1:5">
+      <c r="A20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A20" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="C23" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="C24" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="C25" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
@@ -2563,232 +2626,238 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8" style="19" customWidth="1"/>
-    <col min="2" max="2" width="29.1428571428571" style="20" customWidth="1"/>
+    <col min="1" max="1" width="8" style="26" customWidth="1"/>
+    <col min="2" max="2" width="29.1428571428571" style="27" customWidth="1"/>
     <col min="3" max="3" width="49.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
-    <col min="5" max="5" width="9.42857142857143" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.42857142857143" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A2" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="17" t="str">
-        <f t="shared" ref="E2:E13" si="0">IF(C2=D2,"PASS","FAIL")</f>
-        <v>FAIL</v>
+      <c r="C2" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="18" t="str">
+        <f>IF(C2=D2,"PASS","FAIL")</f>
+        <v>PASS</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A3" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="C3" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="18" t="str">
+        <f t="shared" ref="E3:E12" si="0">IF(C3=D3,"PASS","FAIL")</f>
+        <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A4" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="C4" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A5" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="C5" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A6" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="C6" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A7" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="C7" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A8" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="C8" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A9" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="C9" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A10" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="C10" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A11" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="C11" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A12" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A13" s="24" t="s">
+      <c r="C12" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D12" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E13">
+  <conditionalFormatting sqref="E2:E12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
@@ -2818,129 +2887,141 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="31.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="54" style="11" customWidth="1"/>
-    <col min="4" max="4" width="51.5714285714286" style="11" customWidth="1"/>
+    <col min="3" max="3" width="54" style="20" customWidth="1"/>
+    <col min="4" max="4" width="51.5714285714286" style="20" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:5">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="D2" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="18" t="str">
+        <f t="shared" ref="E2:E7" si="0">IF(C2=D2,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" spans="1:6">
+      <c r="A3" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="B3" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="17" t="str">
-        <f t="shared" ref="E2:E7" si="0">IF(C2=D2,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="C3" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="D3" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" spans="1:6">
+      <c r="A4" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" spans="1:6">
+      <c r="A5" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="B5" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A4" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="C5" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" spans="1:6">
+      <c r="A6" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="B6" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A6" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="F6" s="18"/>
+      <c r="D6" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="F7" s="18"/>
+      <c r="D7" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="F7" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E7">
@@ -2959,137 +3040,183 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="10.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="11.7142857142857"/>
+    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="7.85714285714286" customWidth="1"/>
+    <col min="7" max="7" width="6.14285714285714" customWidth="1"/>
+    <col min="8" max="8" width="27.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="50.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="42.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="6.57142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1" spans="1:4">
+    <row r="1" ht="19" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:4">
+        <v>176</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B3" s="4">
         <v>15</v>
       </c>
       <c r="C3" s="4">
         <f>COUNTIF(中国节日!E:E,"PASS")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <f>COUNTIF(中国节日!E:E,"FAIL")</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B4" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
         <f>COUNTIF(西方节日!E:E,"PASS")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4">
         <f>COUNTIF(西方节日!E:E,"FAIL")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B5" s="4">
         <v>24</v>
       </c>
       <c r="C5" s="4">
         <f>COUNTIF('24节气'!E:E,"PASS")</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
         <f>COUNTIF('24节气'!E:E,"FAIL")</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B6" s="4">
         <v>6</v>
       </c>
       <c r="C6" s="4">
         <f>COUNTIF(其他节日!E:E,"PASS")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4">
         <f>COUNTIF(中国节日!E:E,"FAIL")</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="7">
+        <v>181</v>
+      </c>
+      <c r="B7" s="4">
         <f>SUM(B3:B6)</f>
-        <v>57</v>
-      </c>
-      <c r="C7" s="7">
+        <v>56</v>
+      </c>
+      <c r="C7" s="4">
         <f>SUM(C3:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4">
         <f>SUM(D3:D6)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="8">
         <f>C7/B7</f>
-        <v>0</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
